--- a/data/trans_dic/P38A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Edad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5014528625591839</v>
+        <v>0.5043452920797887</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.519498428139809</v>
+        <v>0.5172767691642046</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4061931016058422</v>
+        <v>0.4010200786750204</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6003093030778562</v>
+        <v>0.597702792212944</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6321367443761282</v>
+        <v>0.6278607454598711</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5672166976409626</v>
+        <v>0.5621351311031035</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5590236894156584</v>
+        <v>0.5597189727513416</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5880989825592066</v>
+        <v>0.5850494542892901</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5052748073949452</v>
+        <v>0.5047889371887372</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5926592454455173</v>
+        <v>0.5979044889269324</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6206507410322295</v>
+        <v>0.6207903953072883</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5692215409981551</v>
+        <v>0.559381768117164</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6897302224553303</v>
+        <v>0.6877601836439411</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7170743790607044</v>
+        <v>0.7222807751983155</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6980877926898568</v>
+        <v>0.7092609306953095</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6290134175816247</v>
+        <v>0.6276642752361206</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6560534911187832</v>
+        <v>0.6533432199784937</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6086928696463023</v>
+        <v>0.6111903363177511</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.7533051256325553</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7145899851519526</v>
+        <v>0.7145899851519527</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.8737269641964684</v>
@@ -764,7 +764,7 @@
         <v>0.8692950240215923</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.7854978594098497</v>
+        <v>0.7854978594098498</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.8424149656505908</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7822273766313708</v>
+        <v>0.7828757580738408</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7153197866998832</v>
+        <v>0.7144667748595479</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6616245077226834</v>
+        <v>0.6584111883107964</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.846315692673515</v>
+        <v>0.8431266466357157</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8438185555010935</v>
+        <v>0.8412062372158382</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7474016619065036</v>
+        <v>0.7478710240865263</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8210094411883736</v>
+        <v>0.8213097738380882</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7849181882108502</v>
+        <v>0.7886957959732378</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7181248922759779</v>
+        <v>0.717035702722537</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8428846837525309</v>
+        <v>0.8427790268617191</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7885881514942356</v>
+        <v>0.7871386213188443</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7634323547095569</v>
+        <v>0.767541484855666</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.899158219293324</v>
+        <v>0.898787403239661</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8962017147498538</v>
+        <v>0.8939135091369159</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8215217830651429</v>
+        <v>0.8213797879828552</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8651064032443291</v>
+        <v>0.8622102952547217</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8325974031306013</v>
+        <v>0.8325913030614377</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.783671039654681</v>
+        <v>0.7814899514163665</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.8901712293913351</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.8694293752927179</v>
+        <v>0.8694293752927177</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.9009296282604775</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8343690243872274</v>
+        <v>0.8345198812793787</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7888628472877374</v>
+        <v>0.7904926033202029</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7589438698973391</v>
+        <v>0.7538458910075029</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9140961659151896</v>
+        <v>0.9171553335986607</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8627541355061473</v>
+        <v>0.8661081004872659</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.843925420966495</v>
+        <v>0.840752910835457</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8855413039176619</v>
+        <v>0.8834969298454147</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8365292329292379</v>
+        <v>0.834846159932344</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8125626914853845</v>
+        <v>0.8081204490680494</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8896268331848262</v>
+        <v>0.8879712540705799</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8493816981123339</v>
+        <v>0.8487874074861437</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8277154578793585</v>
+        <v>0.8260014679501781</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9519843567883721</v>
+        <v>0.9539508015825254</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9139464190534284</v>
+        <v>0.9133759042215063</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8907624809325075</v>
+        <v>0.8886295407735937</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9177359443682384</v>
+        <v>0.9169421129985366</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8761848762795712</v>
+        <v>0.875332665787712</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8538824017016954</v>
+        <v>0.850364602705494</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.9073860949372703</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.9124142439196854</v>
+        <v>0.9124142439196855</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9054089315560719</v>
+        <v>0.9053241601541238</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8622539373550049</v>
+        <v>0.8615954929370915</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.87354296404323</v>
+        <v>0.8731902230310215</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8860913951486764</v>
+        <v>0.8882144727314937</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.903710728314525</v>
+        <v>0.9026787802765204</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9086688021999371</v>
+        <v>0.9100803046222137</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9021495158356483</v>
+        <v>0.9036663181619817</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8906752173700059</v>
+        <v>0.8897830446568064</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8976079832060198</v>
+        <v>0.8968178022037122</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9501195609324911</v>
+        <v>0.9460515568392739</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9145219760119832</v>
+        <v>0.9109387785176565</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9206824002264971</v>
+        <v>0.9201220006529082</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9350750037198297</v>
+        <v>0.9365496471929576</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9434694807026578</v>
+        <v>0.9446197567124072</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9414702813076868</v>
+        <v>0.9411225567288608</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9347607606406687</v>
+        <v>0.9348340781782983</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9232143665274526</v>
+        <v>0.9235874337063082</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9256474940820458</v>
+        <v>0.9253202326022919</v>
       </c>
     </row>
     <row r="16">
@@ -1100,7 +1100,7 @@
         <v>0.9412050694778961</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.9369158948470673</v>
+        <v>0.9369158948470675</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9239453851158617</v>
+        <v>0.9260467228385665</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9047713785375858</v>
+        <v>0.9049153612303048</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8982970144375819</v>
+        <v>0.8997832026759734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9281432408536993</v>
+        <v>0.9300223124099021</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.918816977608188</v>
+        <v>0.9210294955502406</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.935247831101724</v>
+        <v>0.938893533447647</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9338808774190216</v>
+        <v>0.9335033681182248</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9234133412094709</v>
+        <v>0.9239212308690542</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9208928725483249</v>
+        <v>0.9235297516233693</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9718095957144052</v>
+        <v>0.9714545695576657</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9543639563800563</v>
+        <v>0.9560230381850001</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9419589875496178</v>
+        <v>0.9424697777140083</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9697914011603603</v>
+        <v>0.9704675870768872</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9645195326921389</v>
+        <v>0.9659861558238708</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9649262598462341</v>
+        <v>0.9643655339722222</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9651890389252911</v>
+        <v>0.9648444870620952</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9554685740219435</v>
+        <v>0.9562854325226927</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9479844599659897</v>
+        <v>0.9478458164933842</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.9837341046521766</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.9785997365120653</v>
+        <v>0.9785997365120652</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.9676867148062771</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9535149783612398</v>
+        <v>0.9543178979636924</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9513322831698131</v>
+        <v>0.9552371697230843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.945714594560591</v>
+        <v>0.9472569783795668</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9361848030480423</v>
+        <v>0.9321168821980218</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9643806269982371</v>
+        <v>0.9665587581179781</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9655266820617922</v>
+        <v>0.9669448955093629</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9501990878691283</v>
+        <v>0.9510094309138672</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.967961147058942</v>
+        <v>0.968586546288501</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.9607880301686148</v>
+        <v>0.9620297275510863</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9904553020922802</v>
+        <v>0.9896129938819412</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9879739688665548</v>
+        <v>0.989962864830799</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9784701981529667</v>
+        <v>0.9778103412078727</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9779959650769255</v>
+        <v>0.9768434216488555</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9923934055631861</v>
+        <v>0.9941464807322186</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9873288166338325</v>
+        <v>0.9877129591291097</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9795512579787888</v>
+        <v>0.9795004471564132</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9887490119019313</v>
+        <v>0.988870410841944</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9798438406709363</v>
+        <v>0.9801788939371981</v>
       </c>
     </row>
     <row r="22">
@@ -1309,7 +1309,7 @@
         <v>0.9850400840333189</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.9615007707740278</v>
+        <v>0.9615007707740277</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.9822934854570089</v>
@@ -1318,7 +1318,7 @@
         <v>0.9832510268778125</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.9706379768570399</v>
+        <v>0.9706379768570398</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9480647720379914</v>
+        <v>0.9448035278554338</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9596787665775852</v>
+        <v>0.9588254972103094</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9671282834000545</v>
+        <v>0.967483238573389</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9734488231374888</v>
+        <v>0.9704237657713187</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9588893868491776</v>
+        <v>0.9611362435228029</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9428897414031006</v>
+        <v>0.9442291478927058</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.965856000577285</v>
+        <v>0.9694168268568354</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9678494957525964</v>
+        <v>0.9681041670073642</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9592315397699291</v>
+        <v>0.9582777386056727</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9907700723011691</v>
+        <v>0.9893235164493284</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9930370162835364</v>
+        <v>0.9931672081858156</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9944477821456231</v>
+        <v>0.9944027402719525</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9970250148663667</v>
+        <v>0.997019034380159</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9968422467704211</v>
+        <v>0.9968128744598356</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9740527703997057</v>
+        <v>0.9737533050492397</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9910878744842081</v>
+        <v>0.9911304211929184</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9920603161830726</v>
+        <v>0.9910672644989547</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9797635357346813</v>
+        <v>0.9795210309008892</v>
       </c>
     </row>
     <row r="25">
@@ -1409,7 +1409,7 @@
         <v>0.8357689928054305</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.8267377948136319</v>
+        <v>0.826737794813632</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.8966554755859145</v>
@@ -1418,7 +1418,7 @@
         <v>0.8983030903883276</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.8847406225284857</v>
+        <v>0.884740622528486</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.8752981958651023</v>
@@ -1427,7 +1427,7 @@
         <v>0.8677829664634463</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.8565456798385042</v>
+        <v>0.8565456798385043</v>
       </c>
     </row>
     <row r="26">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8403033303365247</v>
+        <v>0.8395914965679281</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8219678813510469</v>
+        <v>0.8227457582123848</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8109963246277484</v>
+        <v>0.8083818937269766</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8849122660205652</v>
+        <v>0.8859804056613121</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.8884063227516598</v>
+        <v>0.8885244695954957</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.87379117783442</v>
+        <v>0.8730596105744955</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.8666087613399014</v>
+        <v>0.8675972630099775</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.8587403858584003</v>
+        <v>0.8594443244587743</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.8459694009336848</v>
+        <v>0.8458804309687364</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8639756069771553</v>
+        <v>0.8646588366456438</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8490731066347381</v>
+        <v>0.8487249333306648</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8442453016218071</v>
+        <v>0.8419095313178221</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9066785364632092</v>
+        <v>0.9070197609050337</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9088317403685034</v>
+        <v>0.907768217339453</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.8952533263088519</v>
+        <v>0.8949463036441371</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.8834237181569313</v>
+        <v>0.8831356485151225</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.8753563802856634</v>
+        <v>0.8758893944467259</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.8652948324096622</v>
+        <v>0.86571575457025</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>224839</v>
+        <v>226136</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>212051</v>
+        <v>211144</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>165643</v>
+        <v>163533</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>255923</v>
+        <v>254812</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>248942</v>
+        <v>247258</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>205623</v>
+        <v>203781</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>488975</v>
+        <v>489583</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>471651</v>
+        <v>469206</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>389216</v>
+        <v>388841</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>265734</v>
+        <v>268086</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>253340</v>
+        <v>253397</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>232125</v>
+        <v>228112</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>294045</v>
+        <v>293205</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>282391</v>
+        <v>284441</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>253065</v>
+        <v>257116</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>550195</v>
+        <v>549015</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>526150</v>
+        <v>523977</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>468879</v>
+        <v>470803</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>535041</v>
+        <v>535485</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>420938</v>
+        <v>420436</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>315522</v>
+        <v>313990</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>515713</v>
+        <v>513770</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>474701</v>
+        <v>473232</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>374510</v>
+        <v>374745</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1061860</v>
+        <v>1062248</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>903460</v>
+        <v>907808</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>702307</v>
+        <v>701242</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>576531</v>
+        <v>576458</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>464053</v>
+        <v>463200</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>364073</v>
+        <v>366033</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>547914</v>
+        <v>547688</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>504170</v>
+        <v>502883</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>411651</v>
+        <v>411579</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1118893</v>
+        <v>1115147</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>958340</v>
+        <v>958333</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>766409</v>
+        <v>764276</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>566598</v>
+        <v>566701</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>522656</v>
+        <v>523735</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>471180</v>
+        <v>468015</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>649785</v>
+        <v>651960</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>567459</v>
+        <v>569665</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>525039</v>
+        <v>523065</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1230834</v>
+        <v>1227993</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1104448</v>
+        <v>1102226</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1009996</v>
+        <v>1004474</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>604122</v>
+        <v>602998</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>562752</v>
+        <v>562358</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>513876</v>
+        <v>512812</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>676718</v>
+        <v>678116</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>601130</v>
+        <v>600755</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>554178</v>
+        <v>552851</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1275582</v>
+        <v>1274479</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1156804</v>
+        <v>1155679</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1061355</v>
+        <v>1056983</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>555547</v>
+        <v>555495</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>554570</v>
+        <v>554146</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>612019</v>
+        <v>611772</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>543350</v>
+        <v>544652</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>585651</v>
+        <v>584982</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>669230</v>
+        <v>670270</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1106743</v>
+        <v>1108604</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1150052</v>
+        <v>1148900</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1289963</v>
+        <v>1288828</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>582981</v>
+        <v>580485</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>588187</v>
+        <v>585882</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>645046</v>
+        <v>644653</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>573387</v>
+        <v>574291</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>611416</v>
+        <v>612162</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>693388</v>
+        <v>693132</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1146750</v>
+        <v>1146840</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1192067</v>
+        <v>1192549</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1330259</v>
+        <v>1329789</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>391661</v>
+        <v>392552</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>431457</v>
+        <v>431526</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>547374</v>
+        <v>548279</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>412878</v>
+        <v>413714</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>454411</v>
+        <v>455505</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>569430</v>
+        <v>571650</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>811303</v>
+        <v>810975</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>897030</v>
+        <v>897524</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1121834</v>
+        <v>1125046</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>411951</v>
+        <v>411801</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>455107</v>
+        <v>455898</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>573979</v>
+        <v>574290</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>431405</v>
+        <v>431706</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>477014</v>
+        <v>477739</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>587500</v>
+        <v>587159</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>838502</v>
+        <v>838203</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>928170</v>
+        <v>928963</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1154837</v>
+        <v>1154668</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>291548</v>
+        <v>291793</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>318059</v>
+        <v>319364</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>384981</v>
+        <v>385609</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>328772</v>
+        <v>327344</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>364306</v>
+        <v>365129</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>424026</v>
+        <v>424649</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>624227</v>
+        <v>624759</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>689277</v>
+        <v>689723</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>813063</v>
+        <v>814114</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>302843</v>
+        <v>302585</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>330309</v>
+        <v>330974</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>398316</v>
+        <v>398047</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>343456</v>
+        <v>343051</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>374889</v>
+        <v>375551</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>433601</v>
+        <v>433770</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>643509</v>
+        <v>643476</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>704080</v>
+        <v>704167</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>829189</v>
+        <v>829472</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>235768</v>
+        <v>234957</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>245833</v>
+        <v>245615</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>300001</v>
+        <v>300111</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>378651</v>
+        <v>377474</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>383718</v>
+        <v>384617</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>438075</v>
+        <v>438697</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>615890</v>
+        <v>618160</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>635230</v>
+        <v>635397</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>743219</v>
+        <v>742480</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>246388</v>
+        <v>246028</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>254378</v>
+        <v>254412</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>308476</v>
+        <v>308462</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>387822</v>
+        <v>387819</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>398905</v>
+        <v>398894</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>452554</v>
+        <v>452415</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>631979</v>
+        <v>632006</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>651120</v>
+        <v>650468</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>759128</v>
+        <v>758940</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2859870</v>
+        <v>2857447</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2769794</v>
+        <v>2772415</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2865057</v>
+        <v>2855821</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>3136779</v>
+        <v>3140566</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>3140202</v>
+        <v>3140619</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3263488</v>
+        <v>3260755</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>6021296</v>
+        <v>6028164</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>5929050</v>
+        <v>5933910</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>6148186</v>
+        <v>6147539</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2940436</v>
+        <v>2942761</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2861131</v>
+        <v>2859958</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2982518</v>
+        <v>2974266</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>3213935</v>
+        <v>3215145</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>3212398</v>
+        <v>3208639</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>3343646</v>
+        <v>3342499</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>6138128</v>
+        <v>6136126</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>6043773</v>
+        <v>6047453</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>6288636</v>
+        <v>6291695</v>
       </c>
     </row>
     <row r="36">
